--- a/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +569,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -656,7 +662,7 @@
           <t>011-2024</t>
         </is>
       </c>
-      <c r="T2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>45605</v>
       </c>
       <c r="U2" t="inlineStr">
@@ -664,10 +670,10 @@
           <t>9/23/2024</t>
         </is>
       </c>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="3" t="n">
         <v>45483</v>
       </c>
-      <c r="W2" s="2" t="n">
+      <c r="W2" s="3" t="n">
         <v>45606</v>
       </c>
       <c r="X2" t="inlineStr">
@@ -757,7 +763,6 @@
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
@@ -875,7 +880,6 @@
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
@@ -993,7 +997,6 @@
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
@@ -1113,7 +1116,6 @@
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
@@ -1226,10 +1228,10 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="3" t="n">
         <v>45633</v>
       </c>
-      <c r="Q7" s="2" t="n">
+      <c r="Q7" s="3" t="n">
         <v>45629</v>
       </c>
       <c r="R7" t="inlineStr">
@@ -1242,16 +1244,16 @@
           <t>24-01-006-01</t>
         </is>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="3" t="n">
         <v>45387</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="3" t="n">
         <v>45399</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="3" t="n">
         <v>45411</v>
       </c>
-      <c r="W7" s="2" t="n">
+      <c r="W7" s="3" t="n">
         <v>45420</v>
       </c>
       <c r="X7" t="inlineStr">
@@ -1336,10 +1338,10 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="3" t="n">
         <v>45634</v>
       </c>
-      <c r="Q8" s="2" t="n">
+      <c r="Q8" s="3" t="n">
         <v>45608</v>
       </c>
       <c r="R8" t="inlineStr">
@@ -1352,16 +1354,16 @@
           <t>24-01-006-02</t>
         </is>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="3" t="n">
         <v>45387</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="3" t="n">
         <v>45399</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="3" t="n">
         <v>45411</v>
       </c>
-      <c r="W8" s="2" t="n">
+      <c r="W8" s="3" t="n">
         <v>45420</v>
       </c>
       <c r="X8" t="inlineStr">
@@ -1377,6 +1379,79 @@
       <c r="Z8" t="inlineStr">
         <is>
           <t>Completed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -569,7 +569,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -612,11 +637,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>1STY1CL
@@ -625,11 +645,6 @@
       </c>
       <c r="K2" t="n">
         <v>3538288.18</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M2" t="n">
         <v>2761101.88</v>
@@ -729,11 +744,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -741,11 +751,6 @@
       </c>
       <c r="K3" t="n">
         <v>2900000</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M3" t="n">
         <v>2170506.18</v>
@@ -846,11 +851,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
@@ -858,11 +858,6 @@
       </c>
       <c r="K4" t="n">
         <v>750000</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M4" t="n">
         <v>1484161.96</v>
@@ -963,11 +958,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -975,11 +965,6 @@
       </c>
       <c r="K5" t="n">
         <v>2900000</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M5" t="n">
         <v>2189306.87</v>
@@ -1080,11 +1065,6 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
@@ -1092,11 +1072,6 @@
       </c>
       <c r="K6" t="n">
         <v>750000</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1199,11 +1174,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1211,11 +1181,6 @@
       </c>
       <c r="K7" t="n">
         <v>3374434.48</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M7" t="n">
         <v>2555554.86</v>
@@ -1309,11 +1274,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
@@ -1321,11 +1281,6 @@
       </c>
       <c r="K8" t="n">
         <v>3374434.47</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="M8" t="n">
         <v>2332180.48</v>
@@ -1384,7 +1339,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
@@ -58,13 +58,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,777 +571,777 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Reverted</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Not yet started</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Under Procurement</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites On Going</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>No. of Sites Completed</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AA1" s="3" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>General Santos City</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4" t="n">
         <v>304641</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Fatima National High School</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>GENERAL SANTOS CITY (DADIANGAS)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr"/>
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>1STY1CL
 Dental/Medical Clinic</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4" t="n">
         <v>3538288.18</v>
       </c>
-      <c r="M2" t="n">
+      <c r="L2" s="4" t="inlineStr"/>
+      <c r="M2" s="4" t="n">
         <v>2761101.88</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>90 CD</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>On-Going</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>011-2024</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>011-2024</t>
         </is>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="5" t="n">
         <v>45605</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>9/23/2024</t>
         </is>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="5" t="n">
         <v>45483</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="5" t="n">
         <v>45606</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>01/13/2025</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>BEBCON BUILDERS AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>On-Going</t>
         </is>
       </c>
+      <c r="AA2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4" t="n">
         <v>304560</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Polomolok National High School</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>POLOMOLOK</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr"/>
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4" t="n">
         <v>2900000</v>
       </c>
-      <c r="M3" t="n">
+      <c r="L3" s="4" t="inlineStr"/>
+      <c r="M3" s="4" t="n">
         <v>2170506.18</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="4" t="n">
         <v>0.6587</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr"/>
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>2025-002</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z3" s="4" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
+      <c r="AA3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4" t="n">
         <v>304575</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Tupi National High School</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>TUPI</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4" t="n">
         <v>750000</v>
       </c>
-      <c r="M4" t="n">
+      <c r="L4" s="4" t="inlineStr"/>
+      <c r="M4" s="4" t="n">
         <v>1484161.96</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="4" t="n">
         <v>0.9878</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr"/>
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>2025-004</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="4" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>TUPI NHS AND TBOLI NHS ONE CONTRACT (CLUSTER)</t>
         </is>
       </c>
+      <c r="AA4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4" t="n">
         <v>304555</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Libertad National High School</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>SURALLAH</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="4" t="n">
         <v>2900000</v>
       </c>
-      <c r="M5" t="n">
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="n">
         <v>2189306.87</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="4" t="n">
         <v>0.8794</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr"/>
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>2025-003</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
+      <c r="AA5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>304574</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>Tboli National High School</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>T'BOLI</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4" t="n">
         <v>750000</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr"/>
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>clustered to tupi nhs</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="4" t="n">
         <v>0.9515</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr"/>
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>2025-004</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="4" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>TUPI NHS AND TBOLI NHS ONE CONTRACT (CLUSTER)</t>
         </is>
       </c>
+      <c r="AA6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>Sultan Kudarat</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4" t="n">
         <v>304594</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Kalanawe II National High School</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>PRESIDENT QUIRINO</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4" t="n">
         <v>3374434.48</v>
       </c>
-      <c r="M7" t="n">
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="n">
         <v>2555554.86</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="P7" s="5" t="n">
         <v>45633</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="5" t="n">
         <v>45629</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>24-01-006</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>24-01-006-01</t>
         </is>
       </c>
-      <c r="T7" s="3" t="n">
+      <c r="T7" s="5" t="n">
         <v>45387</v>
       </c>
-      <c r="U7" s="3" t="n">
+      <c r="U7" s="5" t="n">
         <v>45399</v>
       </c>
-      <c r="V7" s="3" t="n">
+      <c r="V7" s="5" t="n">
         <v>45411</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="W7" s="5" t="n">
         <v>45420</v>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>Sept. 02, 2024</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="4" t="inlineStr">
         <is>
           <t>Rivier-Stone Construction Services</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="Z7" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="AA7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>Sultan Kudarat</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4" t="n">
         <v>130914</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>Kapaya Elementary School</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>BAGUMBAYAN</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" s="4" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="4" t="n">
         <v>3374434.47</v>
       </c>
-      <c r="M8" t="n">
+      <c r="L8" s="4" t="inlineStr"/>
+      <c r="M8" s="4" t="n">
         <v>2332180.48</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="5" t="n">
         <v>45634</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="Q8" s="5" t="n">
         <v>45608</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t>24-01-006</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>24-01-006-02</t>
         </is>
       </c>
-      <c r="T8" s="3" t="n">
+      <c r="T8" s="5" t="n">
         <v>45387</v>
       </c>
-      <c r="U8" s="3" t="n">
+      <c r="U8" s="5" t="n">
         <v>45399</v>
       </c>
-      <c r="V8" s="3" t="n">
+      <c r="V8" s="5" t="n">
         <v>45411</v>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="W8" s="5" t="n">
         <v>45420</v>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>Sept. 03, 2024</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>RYCH Construction</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
+      <c r="AA8" s="4" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AF2:AF8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,15 +64,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,909 +447,939 @@
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="31" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="34" customWidth="1" min="5" max="5"/>
+    <col width="33" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="42" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="13" max="13"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="36" customWidth="1" min="25" max="25"/>
+    <col width="47" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="AA1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>General Santos City</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>304641</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Fatima National High School</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>GENERAL SANTOS CITY (DADIANGAS)</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="inlineStr"/>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr"/>
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>1STY1CL
 Dental/Medical Clinic</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>3538288.18</v>
       </c>
-      <c r="L2" s="4" t="inlineStr"/>
-      <c r="M2" s="4" t="n">
+      <c r="L2" s="5" t="inlineStr"/>
+      <c r="M2" s="5" t="n">
         <v>2761101.88</v>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n">
+      <c r="O2" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>90 CD</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>On-Going</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>011-2024</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>011-2024</t>
         </is>
       </c>
-      <c r="T2" s="5" t="n">
+      <c r="T2" s="6" t="n">
         <v>45605</v>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>9/23/2024</t>
         </is>
       </c>
-      <c r="V2" s="5" t="n">
+      <c r="V2" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="W2" s="5" t="n">
+      <c r="W2" s="6" t="n">
         <v>45606</v>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>01/13/2025</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>BEBCON BUILDERS AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>On-Going</t>
         </is>
       </c>
-      <c r="AA2" s="4" t="n"/>
+      <c r="AA2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>304560</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Polomolok National High School</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>POLOMOLOK</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="inlineStr"/>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr"/>
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>2900000</v>
       </c>
-      <c r="L3" s="4" t="inlineStr"/>
-      <c r="M3" s="4" t="n">
+      <c r="L3" s="5" t="inlineStr"/>
+      <c r="M3" s="5" t="n">
         <v>2170506.18</v>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="5" t="n">
         <v>0.6587</v>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr"/>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr"/>
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>2025-002</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z3" s="4" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA3" s="4" t="n"/>
+      <c r="AA3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>304575</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Tupi National High School</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>TUPI</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="inlineStr"/>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>750000</v>
       </c>
-      <c r="L4" s="4" t="inlineStr"/>
-      <c r="M4" s="4" t="n">
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
         <v>1484161.96</v>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="5" t="n">
         <v>0.9878</v>
       </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="5" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr"/>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>2025-004</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" s="4" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>TUPI NHS AND TBOLI NHS ONE CONTRACT (CLUSTER)</t>
         </is>
       </c>
-      <c r="AA4" s="4" t="n"/>
+      <c r="AA4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>304555</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Libertad National High School</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>SURALLAH</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="inlineStr"/>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>2900000</v>
       </c>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="n">
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
         <v>2189306.87</v>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="5" t="n">
         <v>0.8794</v>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="5" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>2025-003</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA5" s="4" t="n"/>
+      <c r="AA5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>304574</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Tboli National High School</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>T'BOLI</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>750000</v>
       </c>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>clustered to tupi nhs</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="5" t="n">
         <v>0.9515</v>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="5" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr"/>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>2025-004</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>TUPI NHS AND TBOLI NHS ONE CONTRACT (CLUSTER)</t>
         </is>
       </c>
-      <c r="AA6" s="4" t="n"/>
+      <c r="AA6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Sultan Kudarat</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>304594</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Kalanawe II National High School</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>PRESIDENT QUIRINO</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="4" t="inlineStr"/>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>3374434.48</v>
       </c>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="4" t="n">
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
         <v>2555554.86</v>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="P7" s="6" t="n">
         <v>45633</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="Q7" s="6" t="n">
         <v>45629</v>
       </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>24-01-006</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>24-01-006-01</t>
         </is>
       </c>
-      <c r="T7" s="5" t="n">
+      <c r="T7" s="6" t="n">
         <v>45387</v>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="6" t="n">
         <v>45399</v>
       </c>
-      <c r="V7" s="5" t="n">
+      <c r="V7" s="6" t="n">
         <v>45411</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="6" t="n">
         <v>45420</v>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>Sept. 02, 2024</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>Rivier-Stone Construction Services</t>
         </is>
       </c>
-      <c r="Z7" s="4" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA7" s="4" t="n"/>
+      <c r="AA7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Sultan Kudarat</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>130914</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Kapaya Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>BAGUMBAYAN</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>3374434.47</v>
       </c>
-      <c r="L8" s="4" t="inlineStr"/>
-      <c r="M8" s="4" t="n">
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
         <v>2332180.48</v>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="4" t="n">
+      <c r="O8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="6" t="n">
         <v>45634</v>
       </c>
-      <c r="Q8" s="5" t="n">
+      <c r="Q8" s="6" t="n">
         <v>45608</v>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>24-01-006</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>24-01-006-02</t>
         </is>
       </c>
-      <c r="T8" s="5" t="n">
+      <c r="T8" s="6" t="n">
         <v>45387</v>
       </c>
-      <c r="U8" s="5" t="n">
+      <c r="U8" s="6" t="n">
         <v>45399</v>
       </c>
-      <c r="V8" s="5" t="n">
+      <c r="V8" s="6" t="n">
         <v>45411</v>
       </c>
-      <c r="W8" s="5" t="n">
+      <c r="W8" s="6" t="n">
         <v>45420</v>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>Sept. 03, 2024</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>RYCH Construction</t>
         </is>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA8" s="4" t="n"/>
+      <c r="AA8" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
+++ b/Filtered_By_Region/Region XII/Region XII_HEALTH.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,937 +453,964 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="31" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="33" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="42" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="23" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="34" customWidth="1" min="6" max="6"/>
+    <col width="33" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="42" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="23" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
     <col width="26" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="15" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="31" customWidth="1" min="20" max="20"/>
-    <col width="27" customWidth="1" min="21" max="21"/>
-    <col width="21" customWidth="1" min="22" max="22"/>
-    <col width="33" customWidth="1" min="23" max="23"/>
-    <col width="31" customWidth="1" min="24" max="24"/>
-    <col width="36" customWidth="1" min="25" max="25"/>
-    <col width="47" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="26" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="31" customWidth="1" min="21" max="21"/>
+    <col width="27" customWidth="1" min="22" max="22"/>
+    <col width="21" customWidth="1" min="23" max="23"/>
+    <col width="33" customWidth="1" min="24" max="24"/>
+    <col width="31" customWidth="1" min="25" max="25"/>
+    <col width="36" customWidth="1" min="26" max="26"/>
+    <col width="47" customWidth="1" min="27" max="27"/>
+    <col width="28" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>TOTAL NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>BATCH</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Z1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="AA1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="AA1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>208</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>General Santos City</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>304641</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Fatima National High School</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>GENERAL SANTOS CITY (DADIANGAS)</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="I2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="inlineStr"/>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr"/>
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>1STY1CL
 Dental/Medical Clinic</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>3538288.18</v>
       </c>
-      <c r="L2" s="5" t="inlineStr"/>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="5" t="inlineStr"/>
+      <c r="N2" s="5" t="n">
         <v>2761101.88</v>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O2" s="5" t="n">
+      <c r="P2" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="P2" s="5" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>90 CD</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>On-Going</t>
         </is>
       </c>
-      <c r="R2" s="5" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>011-2024</t>
         </is>
       </c>
-      <c r="S2" s="5" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>011-2024</t>
         </is>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="U2" s="6" t="n">
         <v>45605</v>
       </c>
-      <c r="U2" s="5" t="inlineStr">
+      <c r="V2" s="5" t="inlineStr">
         <is>
           <t>9/23/2024</t>
         </is>
       </c>
-      <c r="V2" s="6" t="n">
+      <c r="W2" s="6" t="n">
         <v>45483</v>
       </c>
-      <c r="W2" s="6" t="n">
+      <c r="X2" s="6" t="n">
         <v>45606</v>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>01/13/2025</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>BEBCON BUILDERS AND SUPPLY</t>
         </is>
       </c>
-      <c r="Z2" s="5" t="inlineStr">
+      <c r="AA2" s="5" t="inlineStr">
         <is>
           <t>On-Going</t>
         </is>
       </c>
-      <c r="AA2" s="7" t="n"/>
+      <c r="AB2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>209</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>304560</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>Polomolok National High School</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>POLOMOLOK</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="I3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="inlineStr"/>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr"/>
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>2900000</v>
       </c>
-      <c r="L3" s="5" t="inlineStr"/>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="5" t="inlineStr"/>
+      <c r="N3" s="5" t="n">
         <v>2170506.18</v>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O3" s="5" t="n">
+      <c r="P3" s="5" t="n">
         <v>0.6587</v>
       </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="inlineStr"/>
-      <c r="R3" s="5" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr"/>
+      <c r="S3" s="5" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S3" s="5" t="inlineStr">
+      <c r="T3" s="5" t="inlineStr">
         <is>
           <t>2025-002</t>
         </is>
       </c>
-      <c r="T3" s="5" t="inlineStr">
+      <c r="U3" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U3" s="5" t="inlineStr">
+      <c r="V3" s="5" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V3" s="5" t="inlineStr">
+      <c r="W3" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W3" s="5" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Z3" s="5" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z3" s="5" t="inlineStr">
+      <c r="AA3" s="5" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA3" s="7" t="n"/>
+      <c r="AB3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>210</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>304575</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Tupi National High School</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>TUPI</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="I4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>750000</v>
       </c>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="n">
         <v>1484161.96</v>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="O4" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="P4" s="5" t="n">
         <v>0.9878</v>
       </c>
-      <c r="P4" s="5" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="inlineStr"/>
-      <c r="R4" s="5" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr"/>
+      <c r="S4" s="5" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S4" s="5" t="inlineStr">
+      <c r="T4" s="5" t="inlineStr">
         <is>
           <t>2025-004</t>
         </is>
       </c>
-      <c r="T4" s="5" t="inlineStr">
+      <c r="U4" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U4" s="5" t="inlineStr">
+      <c r="V4" s="5" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V4" s="5" t="inlineStr">
+      <c r="W4" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W4" s="5" t="inlineStr">
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Z4" s="5" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z4" s="5" t="inlineStr">
+      <c r="AA4" s="5" t="inlineStr">
         <is>
           <t>TUPI NHS AND TBOLI NHS ONE CONTRACT (CLUSTER)</t>
         </is>
       </c>
-      <c r="AA4" s="7" t="n"/>
+      <c r="AB4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>211</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>304555</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Libertad National High School</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>SURALLAH</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="I5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>2900000</v>
       </c>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="n">
         <v>2189306.87</v>
       </c>
-      <c r="N5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="P5" s="5" t="n">
         <v>0.8794</v>
       </c>
-      <c r="P5" s="5" t="inlineStr">
+      <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="inlineStr"/>
-      <c r="R5" s="5" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr"/>
+      <c r="S5" s="5" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S5" s="5" t="inlineStr">
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>2025-003</t>
         </is>
       </c>
-      <c r="T5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U5" s="5" t="inlineStr">
+      <c r="V5" s="5" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V5" s="5" t="inlineStr">
+      <c r="W5" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W5" s="5" t="inlineStr">
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z5" s="5" t="inlineStr">
+      <c r="AA5" s="5" t="inlineStr">
         <is>
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA5" s="7" t="n"/>
+      <c r="AB5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>South Cotabato</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>304574</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Tboli National High School</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>T'BOLI</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="I6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>Repair of School Clinic</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>750000</v>
       </c>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>clustered to tupi nhs</t>
         </is>
       </c>
-      <c r="N6" s="5" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
         <is>
           <t>ongoing</t>
         </is>
       </c>
-      <c r="O6" s="5" t="n">
+      <c r="P6" s="5" t="n">
         <v>0.9515</v>
       </c>
-      <c r="P6" s="5" t="inlineStr">
+      <c r="Q6" s="5" t="inlineStr">
         <is>
           <t>June 8, 2025</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="inlineStr"/>
-      <c r="R6" s="5" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr"/>
+      <c r="S6" s="5" t="inlineStr">
         <is>
           <t>DSC-24-06-111</t>
         </is>
       </c>
-      <c r="S6" s="5" t="inlineStr">
+      <c r="T6" s="5" t="inlineStr">
         <is>
           <t>2025-004</t>
         </is>
       </c>
-      <c r="T6" s="5" t="inlineStr">
+      <c r="U6" s="5" t="inlineStr">
         <is>
           <t>June 25, 2024</t>
         </is>
       </c>
-      <c r="U6" s="5" t="inlineStr">
+      <c r="V6" s="5" t="inlineStr">
         <is>
           <t>July 3, 2024</t>
         </is>
       </c>
-      <c r="V6" s="5" t="inlineStr">
+      <c r="W6" s="5" t="inlineStr">
         <is>
           <t>July 23, 2024</t>
         </is>
       </c>
-      <c r="W6" s="5" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>September 6, 2024</t>
         </is>
       </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>January 16, 2025</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>RYCH CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z6" s="5" t="inlineStr">
+      <c r="AA6" s="5" t="inlineStr">
         <is>
           <t>TUPI NHS AND TBOLI NHS ONE CONTRACT (CLUSTER)</t>
         </is>
       </c>
-      <c r="AA6" s="7" t="n"/>
+      <c r="AB6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>213</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Sultan Kudarat</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>304594</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Kalanawe II National High School</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>PRESIDENT QUIRINO</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="I7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>3374434.48</v>
       </c>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="n">
         <v>2555554.86</v>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O7" s="5" t="n">
+      <c r="P7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="6" t="n">
+      <c r="Q7" s="6" t="n">
         <v>45633</v>
       </c>
-      <c r="Q7" s="6" t="n">
+      <c r="R7" s="6" t="n">
         <v>45629</v>
       </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>24-01-006</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>24-01-006-01</t>
         </is>
       </c>
-      <c r="T7" s="6" t="n">
+      <c r="U7" s="6" t="n">
         <v>45387</v>
       </c>
-      <c r="U7" s="6" t="n">
+      <c r="V7" s="6" t="n">
         <v>45399</v>
       </c>
-      <c r="V7" s="6" t="n">
+      <c r="W7" s="6" t="n">
         <v>45411</v>
       </c>
-      <c r="W7" s="6" t="n">
+      <c r="X7" s="6" t="n">
         <v>45420</v>
       </c>
-      <c r="X7" s="5" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>Sept. 02, 2024</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Z7" s="5" t="inlineStr">
         <is>
           <t>Rivier-Stone Construction Services</t>
         </is>
       </c>
-      <c r="Z7" s="5" t="inlineStr">
+      <c r="AA7" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA7" s="7" t="n"/>
+      <c r="AB7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>214</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>SCHOOL HEALTH FACILITIES 2024</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region XII</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Sultan Kudarat</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>130914</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Kapaya Elementary School</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>BAGUMBAYAN</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2nd </t>
         </is>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="I8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>Construction/Repair of Health Facilities</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>3374434.47</v>
       </c>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="n">
         <v>2332180.48</v>
       </c>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="O8" s="5" t="n">
+      <c r="P8" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="Q8" s="6" t="n">
         <v>45634</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="R8" s="6" t="n">
         <v>45608</v>
       </c>
-      <c r="R8" s="5" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>24-01-006</t>
         </is>
       </c>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>24-01-006-02</t>
         </is>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="U8" s="6" t="n">
         <v>45387</v>
       </c>
-      <c r="U8" s="6" t="n">
+      <c r="V8" s="6" t="n">
         <v>45399</v>
       </c>
-      <c r="V8" s="6" t="n">
+      <c r="W8" s="6" t="n">
         <v>45411</v>
       </c>
-      <c r="W8" s="6" t="n">
+      <c r="X8" s="6" t="n">
         <v>45420</v>
       </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>Sept. 03, 2024</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Z8" s="5" t="inlineStr">
         <is>
           <t>RYCH Construction</t>
         </is>
       </c>
-      <c r="Z8" s="5" t="inlineStr">
+      <c r="AA8" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA8" s="7" t="n"/>
+      <c r="AB8" s="7" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AB2:AB8" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
